--- a/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/業務要件定義成果物一覧.xlsx
+++ b/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/業務要件定義成果物一覧.xlsx
@@ -15,7 +15,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">業務要件定義成果物一覧!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -923,16 +923,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="16"/>
   </si>
@@ -1203,6 +1193,13 @@
     </rPh>
     <rPh sb="45" eb="47">
       <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3127,9 +3124,7 @@
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
-      <c r="R31" s="31" t="s">
-        <v>88</v>
-      </c>
+      <c r="R31" s="31"/>
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
       <c r="U31" s="21"/>
@@ -3258,12 +3253,12 @@
     <row r="35" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
       <c r="E35" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -3278,7 +3273,7 @@
       <c r="P35" s="33"/>
       <c r="Q35" s="34"/>
       <c r="R35" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S35" s="33"/>
       <c r="T35" s="21"/>
@@ -3297,7 +3292,11 @@
       <c r="AG35" s="21"/>
       <c r="AH35" s="21"/>
     </row>
-    <row r="36" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="24" t="s">
+        <v>102</v>
+      </c>
+    </row>
     <row r="37" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3776,7 +3775,7 @@
     <hyperlink ref="E35" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -3806,7 +3805,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
@@ -3873,7 +3872,7 @@
         <v>68</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" s="13"/>
     </row>
@@ -3953,7 +3952,7 @@
         <v>69</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>64</v>
@@ -4037,7 +4036,7 @@
         <v>68</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>64</v>
@@ -4121,7 +4120,7 @@
         <v>69</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>64</v>
@@ -4142,7 +4141,7 @@
         <v>69</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>64</v>
@@ -4163,7 +4162,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>64</v>
@@ -4228,7 +4227,7 @@
         <v>67</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G21" s="17"/>
     </row>
@@ -4249,7 +4248,7 @@
         <v>70</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="17"/>
     </row>
@@ -4268,7 +4267,7 @@
         <v>70</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G23" s="17"/>
     </row>
@@ -4346,7 +4345,7 @@
         <v>70</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G27" s="17"/>
     </row>
@@ -4359,7 +4358,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C－&amp;P－</oddFooter>
   </headerFooter>

--- a/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/業務要件定義成果物一覧.xlsx
+++ b/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/業務要件定義成果物一覧.xlsx
@@ -15,7 +15,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">業務要件定義成果物一覧!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -923,6 +923,16 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
+    <t>TIS株式会社</t>
+    <rPh sb="1" eb="3">
+      <t>カブシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="16"/>
   </si>
@@ -1193,13 +1203,6 @@
     </rPh>
     <rPh sb="45" eb="47">
       <t>セイリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3124,7 +3127,9 @@
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
-      <c r="R31" s="31"/>
+      <c r="R31" s="31" t="s">
+        <v>88</v>
+      </c>
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
       <c r="U31" s="21"/>
@@ -3253,12 +3258,12 @@
     <row r="35" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
       <c r="E35" s="36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -3273,7 +3278,7 @@
       <c r="P35" s="33"/>
       <c r="Q35" s="34"/>
       <c r="R35" s="34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S35" s="33"/>
       <c r="T35" s="21"/>
@@ -3292,11 +3297,7 @@
       <c r="AG35" s="21"/>
       <c r="AH35" s="21"/>
     </row>
-    <row r="36" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="24" t="s">
-        <v>102</v>
-      </c>
-    </row>
+    <row r="36" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3775,7 +3776,7 @@
     <hyperlink ref="E35" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -3805,7 +3806,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
@@ -3872,7 +3873,7 @@
         <v>68</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G4" s="13"/>
     </row>
@@ -3952,7 +3953,7 @@
         <v>69</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>64</v>
@@ -4036,7 +4037,7 @@
         <v>68</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>64</v>
@@ -4120,7 +4121,7 @@
         <v>69</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>64</v>
@@ -4141,7 +4142,7 @@
         <v>69</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>64</v>
@@ -4162,7 +4163,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>64</v>
@@ -4227,7 +4228,7 @@
         <v>67</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G21" s="17"/>
     </row>
@@ -4248,7 +4249,7 @@
         <v>70</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G22" s="17"/>
     </row>
@@ -4267,7 +4268,7 @@
         <v>70</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G23" s="17"/>
     </row>
@@ -4345,7 +4346,7 @@
         <v>70</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G27" s="17"/>
     </row>
@@ -4358,7 +4359,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C－&amp;P－</oddFooter>
   </headerFooter>

--- a/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/業務要件定義成果物一覧.xlsx
+++ b/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/業務要件定義成果物一覧.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C448A573-0AE5-42AC-91C1-FD1DBC8B3B0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="210" windowWidth="14940" windowHeight="7965"/>
+    <workbookView xWindow="7725" yWindow="5025" windowWidth="17850" windowHeight="8760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="14" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="99">
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
@@ -923,17 +924,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="16"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="16"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
-  </si>
-  <si>
     <t>業務要件定義成果物一覧</t>
     <rPh sb="0" eb="2">
       <t>ギョウム</t>
@@ -1193,13 +1183,6 @@
     </rPh>
     <rPh sb="45" eb="47">
       <t>セイリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1207,8 +1190,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1311,12 +1294,6 @@
       <sz val="9"/>
       <name val="HGPｺﾞｼｯｸM"/>
       <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1451,7 +1428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1562,7 +1539,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1597,6 +1574,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1618,7 +1598,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1705,52 +1691,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>122712</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6029325"/>
-          <a:ext cx="838200" cy="294162"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2009,7 +1949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3252,14 +3192,10 @@
     </row>
     <row r="35" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
-      <c r="B35" s="21" t="s">
-        <v>88</v>
-      </c>
+      <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
-      <c r="E35" s="36" t="s">
-        <v>89</v>
-      </c>
+      <c r="E35" s="36"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -3272,9 +3208,7 @@
       <c r="O35" s="33"/>
       <c r="P35" s="33"/>
       <c r="Q35" s="34"/>
-      <c r="R35" s="34" t="s">
-        <v>90</v>
-      </c>
+      <c r="R35" s="34"/>
       <c r="S35" s="33"/>
       <c r="T35" s="21"/>
       <c r="U35" s="21"/>
@@ -3292,11 +3226,7 @@
       <c r="AG35" s="21"/>
       <c r="AH35" s="21"/>
     </row>
-    <row r="36" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="24" t="s">
-        <v>102</v>
-      </c>
-    </row>
+    <row r="36" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3771,17 +3701,14 @@
     <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E35" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3805,7 +3732,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
@@ -3872,7 +3799,7 @@
         <v>68</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G4" s="13"/>
     </row>
@@ -3952,7 +3879,7 @@
         <v>69</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>64</v>
@@ -4036,7 +3963,7 @@
         <v>68</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>64</v>
@@ -4120,7 +4047,7 @@
         <v>69</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>64</v>
@@ -4141,7 +4068,7 @@
         <v>69</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>64</v>
@@ -4162,7 +4089,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>64</v>
@@ -4227,7 +4154,7 @@
         <v>67</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G21" s="17"/>
     </row>
@@ -4248,7 +4175,7 @@
         <v>70</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G22" s="17"/>
     </row>
@@ -4267,7 +4194,7 @@
         <v>70</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G23" s="17"/>
     </row>
@@ -4345,7 +4272,7 @@
         <v>70</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G27" s="17"/>
     </row>
@@ -4358,7 +4285,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C－&amp;P－</oddFooter>
   </headerFooter>
